--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H2">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N2">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q2">
-        <v>0.3300366083058889</v>
+        <v>0.05436617284444445</v>
       </c>
       <c r="R2">
-        <v>2.970329474753</v>
+        <v>0.4892955556000001</v>
       </c>
       <c r="S2">
-        <v>0.2206324039768381</v>
+        <v>0.02086761706165866</v>
       </c>
       <c r="T2">
-        <v>0.2206324039768381</v>
+        <v>0.02086761706165866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H3">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P3">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q3">
-        <v>1.047066042199555</v>
+        <v>0.1882024146222222</v>
       </c>
       <c r="R3">
-        <v>9.423594379795999</v>
+        <v>1.6938217316</v>
       </c>
       <c r="S3">
-        <v>0.6999729490580858</v>
+        <v>0.07223859456969971</v>
       </c>
       <c r="T3">
-        <v>0.6999729490580857</v>
+        <v>0.07223859456969971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H4">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N4">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="O4">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P4">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q4">
-        <v>0.0003614948203333333</v>
+        <v>0.02721934565555556</v>
       </c>
       <c r="R4">
-        <v>0.003253453383</v>
+        <v>0.2449741109</v>
       </c>
       <c r="S4">
-        <v>0.0002416624981232284</v>
+        <v>0.01044772607838807</v>
       </c>
       <c r="T4">
-        <v>0.0002416624981232283</v>
+        <v>0.01044772607838807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1188736666666667</v>
+        <v>0.02136666666666667</v>
       </c>
       <c r="H5">
-        <v>0.356621</v>
+        <v>0.0641</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1036512402574302</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N5">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="O5">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P5">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q5">
-        <v>0.1179353571911111</v>
+        <v>0.0002535012555555556</v>
       </c>
       <c r="R5">
-        <v>1.06141821472</v>
+        <v>0.0022815113</v>
       </c>
       <c r="S5">
-        <v>0.0788408337623728</v>
+        <v>9.730254768381349E-05</v>
       </c>
       <c r="T5">
-        <v>0.07884083376237279</v>
+        <v>9.730254768381349E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.125821</v>
+      </c>
+      <c r="I6">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J6">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.544438666666667</v>
+      </c>
+      <c r="N6">
+        <v>7.633316000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.201325300207035</v>
+      </c>
+      <c r="P6">
+        <v>0.201325300207035</v>
+      </c>
+      <c r="Q6">
+        <v>0.1067146058262222</v>
+      </c>
+      <c r="R6">
+        <v>0.960431452436</v>
+      </c>
+      <c r="S6">
+        <v>0.04096075579274498</v>
+      </c>
+      <c r="T6">
+        <v>0.04096075579274498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.125821</v>
+      </c>
+      <c r="I7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J7">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.808225333333333</v>
+      </c>
+      <c r="N7">
+        <v>26.424676</v>
+      </c>
+      <c r="O7">
+        <v>0.6969390273602759</v>
+      </c>
+      <c r="P7">
+        <v>0.696939027360276</v>
+      </c>
+      <c r="Q7">
+        <v>0.369419906555111</v>
+      </c>
+      <c r="R7">
+        <v>3.324779158995999</v>
+      </c>
+      <c r="S7">
+        <v>0.1417961342800965</v>
+      </c>
+      <c r="T7">
+        <v>0.1417961342800965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.125821</v>
+      </c>
+      <c r="I8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J8">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.273916333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.821749</v>
+      </c>
+      <c r="O8">
+        <v>0.1007969229547075</v>
+      </c>
+      <c r="P8">
+        <v>0.1007969229547075</v>
+      </c>
+      <c r="Q8">
+        <v>0.05342847565877778</v>
+      </c>
+      <c r="R8">
+        <v>0.480856280929</v>
+      </c>
+      <c r="S8">
+        <v>0.02050769645723658</v>
+      </c>
+      <c r="T8">
+        <v>0.02050769645723659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04194033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.125821</v>
+      </c>
+      <c r="I9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="J9">
+        <v>0.203455580349924</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01186433333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.035593</v>
+      </c>
+      <c r="O9">
+        <v>0.0009387494779816524</v>
+      </c>
+      <c r="P9">
+        <v>0.0009387494779816526</v>
+      </c>
+      <c r="Q9">
+        <v>0.0004975940947777777</v>
+      </c>
+      <c r="R9">
+        <v>0.004478346853</v>
+      </c>
+      <c r="S9">
+        <v>0.0001909938198459453</v>
+      </c>
+      <c r="T9">
+        <v>0.0001909938198459453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.142833</v>
+      </c>
+      <c r="H10">
+        <v>0.428499</v>
+      </c>
+      <c r="I10">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J10">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.544438666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.633316000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.201325300207035</v>
+      </c>
+      <c r="P10">
+        <v>0.201325300207035</v>
+      </c>
+      <c r="Q10">
+        <v>0.363429808076</v>
+      </c>
+      <c r="R10">
+        <v>3.270868272684</v>
+      </c>
+      <c r="S10">
+        <v>0.1394969273526313</v>
+      </c>
+      <c r="T10">
+        <v>0.1394969273526314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1188736666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.356621</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="G11">
+        <v>0.142833</v>
+      </c>
+      <c r="H11">
+        <v>0.428499</v>
+      </c>
+      <c r="I11">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J11">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.808225333333333</v>
+      </c>
+      <c r="N11">
+        <v>26.424676</v>
+      </c>
+      <c r="O11">
+        <v>0.6969390273602759</v>
+      </c>
+      <c r="P11">
+        <v>0.696939027360276</v>
+      </c>
+      <c r="Q11">
+        <v>1.258105249036</v>
+      </c>
+      <c r="R11">
+        <v>11.322947241324</v>
+      </c>
+      <c r="S11">
+        <v>0.4829042985104797</v>
+      </c>
+      <c r="T11">
+        <v>0.4829042985104798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.142833</v>
+      </c>
+      <c r="H12">
+        <v>0.428499</v>
+      </c>
+      <c r="I12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J12">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.273916333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.821749</v>
+      </c>
+      <c r="O12">
+        <v>0.1007969229547075</v>
+      </c>
+      <c r="P12">
+        <v>0.1007969229547075</v>
+      </c>
+      <c r="Q12">
+        <v>0.181957291639</v>
+      </c>
+      <c r="R12">
+        <v>1.637615624751</v>
+      </c>
+      <c r="S12">
+        <v>0.06984150041908281</v>
+      </c>
+      <c r="T12">
+        <v>0.06984150041908281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.142833</v>
+      </c>
+      <c r="H13">
+        <v>0.428499</v>
+      </c>
+      <c r="I13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="J13">
+        <v>0.6928931793926457</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M6">
-        <v>0.003928</v>
-      </c>
-      <c r="N6">
-        <v>0.011784</v>
-      </c>
-      <c r="O6">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="P6">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="Q6">
-        <v>0.0004669357626666666</v>
-      </c>
-      <c r="R6">
-        <v>0.004202421864</v>
-      </c>
-      <c r="S6">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="T6">
-        <v>0.0003121507045800858</v>
+      <c r="M13">
+        <v>0.01186433333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.035593</v>
+      </c>
+      <c r="O13">
+        <v>0.0009387494779816524</v>
+      </c>
+      <c r="P13">
+        <v>0.0009387494779816526</v>
+      </c>
+      <c r="Q13">
+        <v>0.001694618323</v>
+      </c>
+      <c r="R13">
+        <v>0.015251564907</v>
+      </c>
+      <c r="S13">
+        <v>0.0006504531104518936</v>
+      </c>
+      <c r="T13">
+        <v>0.0006504531104518938</v>
       </c>
     </row>
   </sheetData>
